--- a/StockTable.xlsx
+++ b/StockTable.xlsx
@@ -391,7 +391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>

--- a/StockTable.xlsx
+++ b/StockTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Item_ID</t>
   </si>
@@ -31,6 +31,60 @@
   </si>
   <si>
     <t>Supplier_ID</t>
+  </si>
+  <si>
+    <t>Blue Pen</t>
+  </si>
+  <si>
+    <t>Black Pen</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Note Book</t>
+  </si>
+  <si>
+    <t>A5 Book</t>
+  </si>
+  <si>
+    <t>CR Book</t>
+  </si>
+  <si>
+    <t>B5 Book</t>
+  </si>
+  <si>
+    <t>pencil case</t>
+  </si>
+  <si>
+    <t>Flie Cover</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Teen Novel</t>
+  </si>
+  <si>
+    <t>kids Story Book</t>
+  </si>
+  <si>
+    <t>School Bag</t>
+  </si>
+  <si>
+    <t>Water Bottle</t>
+  </si>
+  <si>
+    <t>Lunch Box</t>
+  </si>
+  <si>
+    <t>Birthday Card</t>
+  </si>
+  <si>
+    <t>Teachers Day Card</t>
+  </si>
+  <si>
+    <t>New Year Card</t>
   </si>
 </sst>
 </file>
@@ -66,13 +120,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,16 +159,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F19" totalsRowShown="0">
-  <autoFilter ref="B2:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F28" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="B2:F28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Item_ID"/>
-    <tableColumn id="2" name="Item_Name"/>
-    <tableColumn id="3" name="Item_Price"/>
-    <tableColumn id="4" name="Item_Qty"/>
-    <tableColumn id="5" name="Supplier_ID"/>
+    <tableColumn id="1" name="Item_ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Item_Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Item_Price" dataDxfId="3"/>
+    <tableColumn id="4" name="Item_Qty" dataDxfId="2"/>
+    <tableColumn id="5" name="Supplier_ID" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -383,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +489,448 @@
       </c>
       <c r="F2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>400</v>
+      </c>
+      <c r="F3" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>20002</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>400</v>
+      </c>
+      <c r="F4" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>20003</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>20004</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>150</v>
+      </c>
+      <c r="E6" s="1">
+        <v>400</v>
+      </c>
+      <c r="F6" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>20005</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>20006</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>260</v>
+      </c>
+      <c r="F8" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>20007</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1">
+        <v>400</v>
+      </c>
+      <c r="F9" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>20008</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>455</v>
+      </c>
+      <c r="E10" s="1">
+        <v>170</v>
+      </c>
+      <c r="F10" s="1">
+        <v>186051</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>20010</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>300</v>
+      </c>
+      <c r="F11" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>20011</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>350</v>
+      </c>
+      <c r="F12" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>20012</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>20013</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>180</v>
+      </c>
+      <c r="E14" s="1">
+        <v>400</v>
+      </c>
+      <c r="F14" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>20014</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1">
+        <v>300</v>
+      </c>
+      <c r="F15" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>20015</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>210</v>
+      </c>
+      <c r="E16" s="1">
+        <v>260</v>
+      </c>
+      <c r="F16" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>20016</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <v>270</v>
+      </c>
+      <c r="F17" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>20017</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>455</v>
+      </c>
+      <c r="E18" s="1">
+        <v>170</v>
+      </c>
+      <c r="F18" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>20018</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>170</v>
+      </c>
+      <c r="F19" s="1">
+        <v>186053</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>50001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>670</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>186057</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>50002</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>720</v>
+      </c>
+      <c r="E21" s="1">
+        <v>350</v>
+      </c>
+      <c r="F21" s="1">
+        <v>186059</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>50003</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>300</v>
+      </c>
+      <c r="E22" s="1">
+        <v>500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>186058</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>70001</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1180</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>186064</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>70004</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>390</v>
+      </c>
+      <c r="E24" s="1">
+        <v>180</v>
+      </c>
+      <c r="F24" s="1">
+        <v>186065</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>70015</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>410</v>
+      </c>
+      <c r="E25" s="1">
+        <v>260</v>
+      </c>
+      <c r="F25" s="1">
+        <v>186066</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>90016</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1">
+        <v>270</v>
+      </c>
+      <c r="F26" s="1">
+        <v>186066</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>90017</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>155</v>
+      </c>
+      <c r="E27" s="1">
+        <v>170</v>
+      </c>
+      <c r="F27" s="1">
+        <v>186066</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>90018</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>110</v>
+      </c>
+      <c r="E28" s="1">
+        <v>170</v>
+      </c>
+      <c r="F28" s="1">
+        <v>186066</v>
       </c>
     </row>
   </sheetData>
